--- a/target/test-classes/InterfaceTestCase.xlsx
+++ b/target/test-classes/InterfaceTestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>NO（用例编号）</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>5deef94c14d8477e8a773441</t>
+  </si>
+  <si>
+    <t>5def41ad14d8477e8a77345b</t>
+  </si>
+  <si>
+    <t>5df09a1514d847275d72b37a</t>
+  </si>
+  <si>
+    <t>5df09a1814d847275d72b37b</t>
+  </si>
+  <si>
+    <t>5df1985614d8475d0721a296</t>
+  </si>
+  <si>
+    <t>5df19ae014d8475d0721a29d</t>
+  </si>
+  <si>
+    <t>5df19ae314d8475d0721a29e</t>
+  </si>
+  <si>
+    <t>5df19cb514d8475d0721a2a4</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1384,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row ht="27" r="6" spans="1:9">
@@ -1473,7 +1494,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -1537,7 +1558,7 @@
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row ht="27" r="12" spans="1:9">
